--- a/psychopy/demos/builder/BigFiveInventory/demographics.xlsx
+++ b/psychopy/demos/builder/BigFiveInventory/demographics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\psychopy\psychopy\demos\builder\BigFiveInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92805413-819D-4159-A412-02002F5104C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A3AD68-B62B-4E44-B3D6-C8D946EC675F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,108 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>OPTIONAL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t xml:space="preserve">
+If the item is a multiple choice response, what options should be available? These should be a list seperated by commas.
+If the item is free text entry, what text should be displayed before any response?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>OPTIONAL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t xml:space="preserve">
+If the item is a slider, what ticks should it use? These should be numeric and seperated by commas.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>OPTIONAL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t xml:space="preserve">
+How should each tick be labeled? This should be a list seperated by commas, of the same length as </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>ticks</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -228,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -254,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -277,107 +378,6 @@
           </rPr>
           <t xml:space="preserve">
 What proportion of the available width should be taken up by the item? Should be a value between 0 and 1.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri Light"/>
-            <family val="2"/>
-            <scheme val="major"/>
-          </rPr>
-          <t>OPTIONAL</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri Light"/>
-            <family val="2"/>
-            <scheme val="major"/>
-          </rPr>
-          <t xml:space="preserve">
-If the item is a multiple choice response, what options should be available? These should be a list seperated by commas.
-If the item is free text entry, what text should be displayed before any response?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri Light"/>
-            <family val="2"/>
-            <scheme val="major"/>
-          </rPr>
-          <t>OPTIONAL</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri Light"/>
-            <family val="2"/>
-            <scheme val="major"/>
-          </rPr>
-          <t xml:space="preserve">
-If the item is a slider, what ticks should it use? These should be numeric and seperated by commas.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri Light"/>
-            <family val="2"/>
-            <scheme val="major"/>
-          </rPr>
-          <t>OPTIONAL</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri Light"/>
-            <family val="2"/>
-            <scheme val="major"/>
-          </rPr>
-          <t xml:space="preserve">
-How should each tick be labeled? This should be a list seperated by commas, of the same length as </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <i/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri Light"/>
-            <family val="2"/>
-            <scheme val="major"/>
-          </rPr>
-          <t>ticks</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri Light"/>
-            <family val="2"/>
-            <scheme val="major"/>
-          </rPr>
-          <t>.</t>
         </r>
       </text>
     </comment>
@@ -868,11 +868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -880,12 +880,12 @@
     <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="2" customWidth="1"/>
-    <col min="5" max="8" width="15.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="25.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="4" hidden="1"/>
+    <col min="4" max="4" width="25.7109375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="2" customWidth="1"/>
+    <col min="8" max="11" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="4" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -899,28 +899,28 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -948,10 +948,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -965,10 +965,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -982,10 +982,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
